--- a/Labb2/betyg.xlsx
+++ b/Labb2/betyg.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -488,7 +488,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -504,7 +504,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>

--- a/Labb2/betyg.xlsx
+++ b/Labb2/betyg.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tabell 1A" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tabell 1B" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Definitioner" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1637,4 +1639,2206 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Grundskolan – Betyg och Prov – Riksnivå</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 5</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 6</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 7</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 8</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Tabell 1B: Resultat av slutbetyg för elever som avslutat årskurs 9 läsåren 2018/19–2022/23</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Läsår
+Huvudman
+Bakgrund</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Elever som avslutat åk 9 som fått eller skulle ha fått betyg enligt det mål- och kunskapsrelaterade betygsystemet</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Genomsnittligt meritvärde beräknat på 16 ämnen</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Genomsnittligt meritvärde beräknat på 17 ämnen3</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Andel (%) elever som saknar godkänt betyg i ett, flera eller alla ämnen</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Totalt</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Flickor</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Pojkar</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Totalt</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Flickor</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Pojkar</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Totalt</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Flickor</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Pojkar</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2018/19</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>221.7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>234.3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>209.8</v>
+      </c>
+      <c r="E9" t="n">
+        <v>229.8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="G9" t="n">
+        <v>217</v>
+      </c>
+      <c r="H9" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="J9" t="n">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2019/20</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>222.9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>235.7</v>
+      </c>
+      <c r="D10" t="n">
+        <v>210.9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>231.1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>244.9</v>
+      </c>
+      <c r="G10" t="n">
+        <v>218.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="I10" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020/21</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>223.9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>235.4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>212.9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>232.1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>244.4</v>
+      </c>
+      <c r="G11" t="n">
+        <v>220.3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="I11" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="J11" t="n">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2021/22</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>221.2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>231.6</v>
+      </c>
+      <c r="D12" t="n">
+        <v>211.4</v>
+      </c>
+      <c r="E12" t="n">
+        <v>229.2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>240.3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>218.8</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="I12" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2022/23</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>220.6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>229.7</v>
+      </c>
+      <c r="D13" t="n">
+        <v>211.9</v>
+      </c>
+      <c r="E13" t="n">
+        <v>228.5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>238.2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>219.3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="I13" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>därav</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Kommun</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>216.1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>225.6</v>
+      </c>
+      <c r="D15" t="n">
+        <v>207.2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>223.6</v>
+      </c>
+      <c r="F15" t="n">
+        <v>233.8</v>
+      </c>
+      <c r="G15" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="I15" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="J15" t="n">
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Enskild</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>237.9</v>
+      </c>
+      <c r="C16" t="n">
+        <v>245</v>
+      </c>
+      <c r="D16" t="n">
+        <v>230.8</v>
+      </c>
+      <c r="E16" t="n">
+        <v>247.2</v>
+      </c>
+      <c r="F16" t="n">
+        <v>254.8</v>
+      </c>
+      <c r="G16" t="n">
+        <v>239.7</v>
+      </c>
+      <c r="H16" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="I16" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>därav</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Allmän inriktning</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>238.5</v>
+      </c>
+      <c r="C18" t="n">
+        <v>245.8</v>
+      </c>
+      <c r="D18" t="n">
+        <v>231.2</v>
+      </c>
+      <c r="E18" t="n">
+        <v>247.9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>255.7</v>
+      </c>
+      <c r="G18" t="n">
+        <v>240.1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>18</v>
+      </c>
+      <c r="I18" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="J18" t="n">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Konfessionell</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>225.6</v>
+      </c>
+      <c r="C19" t="n">
+        <v>230.5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>220.5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>233.2</v>
+      </c>
+      <c r="F19" t="n">
+        <v>238.4</v>
+      </c>
+      <c r="G19" t="n">
+        <v>227.8</v>
+      </c>
+      <c r="H19" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="I19" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Waldorf</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>236.3</v>
+      </c>
+      <c r="C20" t="n">
+        <v>239</v>
+      </c>
+      <c r="D20" t="n">
+        <v>233.9</v>
+      </c>
+      <c r="E20" t="n">
+        <v>244.3</v>
+      </c>
+      <c r="F20" t="n">
+        <v>247.1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>241.7</v>
+      </c>
+      <c r="H20" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="I20" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J20" t="n">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Elever med svensk bakgrund</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>227.4</v>
+      </c>
+      <c r="C21" t="n">
+        <v>236.3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>219.1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>236</v>
+      </c>
+      <c r="F21" t="n">
+        <v>245.4</v>
+      </c>
+      <c r="G21" t="n">
+        <v>227.1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="I21" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Elever med utländsk bakgrund</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>204</v>
+      </c>
+      <c r="C22" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>194.5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>210.2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>221</v>
+      </c>
+      <c r="G22" t="n">
+        <v>200.1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="J22" t="n">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>därav</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Födda i Sverige</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>215.5</v>
+      </c>
+      <c r="C24" t="n">
+        <v>224.7</v>
+      </c>
+      <c r="D24" t="n">
+        <v>206.6</v>
+      </c>
+      <c r="E24" t="n">
+        <v>223</v>
+      </c>
+      <c r="F24" t="n">
+        <v>232.8</v>
+      </c>
+      <c r="G24" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="H24" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="I24" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="J24" t="n">
+        <v>34.3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Födda utomlands, inv. före 2014</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>217.4</v>
+      </c>
+      <c r="C25" t="n">
+        <v>227.6</v>
+      </c>
+      <c r="D25" t="n">
+        <v>208</v>
+      </c>
+      <c r="E25" t="n">
+        <v>224.8</v>
+      </c>
+      <c r="F25" t="n">
+        <v>235.8</v>
+      </c>
+      <c r="G25" t="n">
+        <v>214.7</v>
+      </c>
+      <c r="H25" t="n">
+        <v>32</v>
+      </c>
+      <c r="I25" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="J25" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Födda utomlands, inv. 2014 el. senare</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>193.1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>171.8</v>
+      </c>
+      <c r="E26" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>197.7</v>
+      </c>
+      <c r="G26" t="n">
+        <v>175.1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="I26" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Totalt exkl. nyinvandrade elever och okänd bakgrund</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>223</v>
+      </c>
+      <c r="C27" t="n">
+        <v>232.1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>214.3</v>
+      </c>
+      <c r="E27" t="n">
+        <v>231.1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>240.9</v>
+      </c>
+      <c r="G27" t="n">
+        <v>221.7</v>
+      </c>
+      <c r="H27" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>24</v>
+      </c>
+      <c r="J27" t="n">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Nyinvandrade elever</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>144.8</v>
+      </c>
+      <c r="C28" t="n">
+        <v>152</v>
+      </c>
+      <c r="D28" t="n">
+        <v>138.2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>146.2</v>
+      </c>
+      <c r="F28" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="G28" t="n">
+        <v>139.3</v>
+      </c>
+      <c r="H28" t="n">
+        <v>75</v>
+      </c>
+      <c r="I28" t="n">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="J28" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Elever med okänd bakgrund</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>133.3</v>
+      </c>
+      <c r="C29" t="n">
+        <v>133.9</v>
+      </c>
+      <c r="D29" t="n">
+        <v>132.8</v>
+      </c>
+      <c r="E29" t="n">
+        <v>135.2</v>
+      </c>
+      <c r="F29" t="n">
+        <v>135.8</v>
+      </c>
+      <c r="G29" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="H29" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="I29" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="J29" t="n">
+        <v>76.09999999999999</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Föräldrarnas högsta utbildning2</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Förgymnasial utbildning</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>163.8</v>
+      </c>
+      <c r="C31" t="n">
+        <v>172.2</v>
+      </c>
+      <c r="D31" t="n">
+        <v>155.8</v>
+      </c>
+      <c r="E31" t="n">
+        <v>166.8</v>
+      </c>
+      <c r="F31" t="n">
+        <v>175.6</v>
+      </c>
+      <c r="G31" t="n">
+        <v>158.3</v>
+      </c>
+      <c r="H31" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="I31" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="J31" t="n">
+        <v>65.3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Gymnasial utbildning</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>197.4</v>
+      </c>
+      <c r="C32" t="n">
+        <v>207.2</v>
+      </c>
+      <c r="D32" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="E32" t="n">
+        <v>203.2</v>
+      </c>
+      <c r="F32" t="n">
+        <v>213.6</v>
+      </c>
+      <c r="G32" t="n">
+        <v>193.3</v>
+      </c>
+      <c r="H32" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="I32" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="J32" t="n">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Eftergymnasial utbildning</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>239.1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>247.9</v>
+      </c>
+      <c r="D33" t="n">
+        <v>230.7</v>
+      </c>
+      <c r="E33" t="n">
+        <v>248.6</v>
+      </c>
+      <c r="F33" t="n">
+        <v>258.1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>239.6</v>
+      </c>
+      <c r="H33" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="I33" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>därav</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Kort utbildning</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>218.9</v>
+      </c>
+      <c r="C35" t="n">
+        <v>228.4</v>
+      </c>
+      <c r="D35" t="n">
+        <v>209.7</v>
+      </c>
+      <c r="E35" t="n">
+        <v>226.5</v>
+      </c>
+      <c r="F35" t="n">
+        <v>236.6</v>
+      </c>
+      <c r="G35" t="n">
+        <v>216.6</v>
+      </c>
+      <c r="H35" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="J35" t="n">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Lång utbildning</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>245.8</v>
+      </c>
+      <c r="C36" t="n">
+        <v>254.5</v>
+      </c>
+      <c r="D36" t="n">
+        <v>237.6</v>
+      </c>
+      <c r="E36" t="n">
+        <v>256</v>
+      </c>
+      <c r="F36" t="n">
+        <v>265.3</v>
+      </c>
+      <c r="G36" t="n">
+        <v>247.2</v>
+      </c>
+      <c r="H36" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="I36" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>14.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F89"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Förklaringar och definitioner till tabell 1 A–B</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>* Elever som avslutat åk 9</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    - Totalt antal </t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antal elever som har avslutat årskurs 9, dvs. elever med slutbetyg från </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>såväl det mål- och kunskapsrelaterade betygssystemet som andra</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>bedömningssystem och elever som lämnat grundskolan utan godkänt slutbetyg.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    - Antal elever med slutbetyg</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antal elever som fått slutbetyg i ett eller flera ämnen i årskurs 9 enligt det </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>mål- och kunskapsrelaterade betygssystemet.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    - Antal elever med godkända</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antal elever som fått godkänt slutbetyg i ett eller flera ämnen i årskurs 9 </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      slutbetyg</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>enligt det mål- och kunskapsrelaterade betygssystemet.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>* Genomsnittligt meritvärde med 16 ämnen</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Meritvärdet beräknas genom att summera betygsvärdena för de 16 bästa betygen i</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>   </t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>elevens slutbetyg (E=10, D=12.5, C=15, B=17.5 och A=20 ). Det möjliga maxvärdet är</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">320 poäng. </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>* Genomsnittligt meritvärde med 17 ämnen</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Meritvärdet beräknas genom att summan av betygsvärdena för elevens 16 bästa betyg</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>samt betyg i moderna språk som språkval (E=10, D=12.5, C=15, B=17.5 och A=20).</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Det möjliga maxvärdet är 340 poäng. </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Det genomsnittliga meritvärdet beräknas för de elever som fått godkänt betyg i minst ett ämne. </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Elevernas sammanlagda meritvärden divideras med antal elever som fått godkänt betyg i minst</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>ett ämne, dvs. elever som har lägst meritvärde 10. Betygen mäts före prövning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>* Elever som saknar godkänt betyg</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antal och andel elever som saknade godkänt betyg i ett, två eller flera resp. alla    </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ämnen, av de elever som fått eller skulle ha fått slutbetyg enligt  </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">det mål- och kunskapsrelaterade betygssystemet. </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>* Elever med svensk bakgrund</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I redovisningsgruppen elever med svensk bakgrund ingår elever födda i Sverige med </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">minst en förälder född i Sverige. Elever med okänd bakgrund ingår inte sedan 2014/15 i </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">svensk bakgrund. De har i tidigare publiceringar redovisats som svensk bakgrund. </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Observera att ovanstående elever kan vara berättigade till undervisning i modersmål och </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">svenska som andraspråk. Se vidare 10 kap. 7 § Skollag (2010:800) och 5 kap. 14 § </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Skolförordning (2011:185). </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>* Elever med utländsk bakgrund</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Elever födda utomlands samt elever födda i Sverige med båda föräldrarna</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">födda utomlands. </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>* Elever med utländsk bakgrund</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Elever med båda föräldrarna födda utomlands, men själva är födda i Sverige.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   födda i Sverige</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>* Elever med utländsk bakgrund födda</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elever födda utanför Sverige som invandrat till Sverige före 2014. </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   utanför Sverige, invandrat före 2014</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eleverna har kommit till Sverige före ordinarie skolstart. </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>* Elever med utländsk bakgrund födda</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Elever födda utanför Sverige som invandrat till Sverige 2014 eller senare.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   utanför Sverige, invandrat 2014 el. senare</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eleverna har kommit till Sverige efter ordinarie skolstart. </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>* Totalt exkl. nyinvandrade och okänd</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elever som är nyinvandrade, dvs. varit i Sverige i fyra eller färre år samt elever som </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    bakgrund</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>saknar uppgift om personnummer är exkluderade från totalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>* Nyinvandrade elever</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nyinvandrade elever har kommit till Sverige de senaste 4 åren. De har inte bott i Sverige eller </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>gått i svensk skola tidigare.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>* Elever med okänd bakgrund</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elever med okänd bakgrund saknar uppgift om personnummer samt enstaka elever som har </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">skyddad identitet med hemliga personnummer. Dessa var före 2014/15 inkluderade i </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr"/>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">redovisningsgrupperna svensk bakgrund respektive totalt exklusive nyinvandrade elever. </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr"/>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>* Föräldrarnas högsta utbildning</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    - Förgymnasial utbildning</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Elever vars föräldrars högsta utbildning är genomgången folkskola/grundskola.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    - Gymnasial utbildning</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Elever vars minst en förälders högsta utbildning är genomgången gymnasial utbildning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    - Eftergymnasial utbildning</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elever vars minst en förälders högsta utbildning är eftergymnasial utbildning </t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>med minst 30 högskolepoäng (20 poäng om tagna innan 2007).</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    - Kort eftergymnasial utbildning</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elever vars föräldrars högsta utbildning är eftergymnasial utbildning </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>med minst 30 högskolepoäng och kortare än tre år.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    - Lång eftergymnasial utbildning</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elever vars föräldrars högsta utbildning är eftergymnasial utbildning </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>med minst 30 högskolepoäng och minst tre år.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elever vars båda föräldrar saknar uppgift om utbildningsnivå ingår ej i redovisningen. </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Dubbelprick (..) anger att uppgiften baseras på 1-4 elever. Om enbart en uppgift baseras på 1-4 elever prickas även den uppgift som</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>baseras på näst lägst antal, alternativt 0 elever. Detta för att det inte ska vara möjligt att räkna fram ett värde utifrån övriga värden.</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Om data saknas för antalsuppgift visas en prick (.) istället för utfall i samtliga celler. </t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1) Elever som har avslutat årskurs 9 med slutbetyg från det mål- och kunskapsrelaterade betygssystemet. </t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Införd i tabell 1 hösten 2023. I tidigare publiceringar har även elever som hade betyg från andra bedömningssystem ingått i uppgiften.</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2) Uppgifter om föräldrarnas högsta utbildning saknas för 3 156 elever som avslutat åk 9 2022/23. </t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3) Från och med ansökan till gymnasiet läsåret 2013/14 får de sökande som fått betyg i moderna språk som språkval räkna med </t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   detta betyg som ett 17:e betyg i meritvärdet, utöver de 16 bästa betygen i övrigt. Elever som inte har 17 ämnen har meritvärde om 16 ämnen,</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   som tidigare.</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Ytterligare information om uppgifterna finns kvalitetsdeklarationen.</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr"/>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Närmast föregående publicering:</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Grundskolan - Betyg och prov - Läsår 2021/22 - Riksnivå - Tabell 1 A–B</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr"/>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Skolverkets webbplats.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>